--- a/WpfApplication1/bin/Debug/invoice_template.xlsx
+++ b/WpfApplication1/bin/Debug/invoice_template.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhawkinson.KALOSINC\Documents\Visual Studio 2015\Projects\9to5\WpfApplication1\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhawkinson.KALOSINC\Documents\GitHub\9to5\WpfApplication1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26715" windowHeight="12630" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26715" windowHeight="12630"/>
   </bookViews>
   <sheets>
-    <sheet name="Invoice1" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Invoice" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Invoice1!$A$1:$F$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Invoice!$A$1:$F$36</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -106,54 +105,6 @@
     <t xml:space="preserve">Customer Signature: </t>
   </si>
   <si>
-    <t>~DATE~</t>
-  </si>
-  <si>
-    <t>~INVOICE_NUM~</t>
-  </si>
-  <si>
-    <t>~CUST_BREV~</t>
-  </si>
-  <si>
-    <t>~CUST_LONG~</t>
-  </si>
-  <si>
-    <t>~CUST_ADDRESS_1~</t>
-  </si>
-  <si>
-    <t>~CUST_ADDRESS_2~</t>
-  </si>
-  <si>
-    <t>~CUST_CITY_STATE_ZIP~</t>
-  </si>
-  <si>
-    <t>~CUST_PHONE~</t>
-  </si>
-  <si>
-    <t>~VEH_DESC~</t>
-  </si>
-  <si>
-    <t>~WAR_DESC~</t>
-  </si>
-  <si>
-    <t>~VEH_MILEAGE~</t>
-  </si>
-  <si>
-    <t>~VEH_PRICE~</t>
-  </si>
-  <si>
-    <t>~VEH_TRADE_IN~</t>
-  </si>
-  <si>
-    <t>~WAR_PRICE~</t>
-  </si>
-  <si>
-    <t>~VEH_TAX_X~</t>
-  </si>
-  <si>
-    <t>~WAR_TAX_X~</t>
-  </si>
-  <si>
     <t xml:space="preserve">Date: </t>
   </si>
   <si>
@@ -163,22 +114,70 @@
     <t xml:space="preserve">Customer ID: </t>
   </si>
   <si>
-    <t>~SUBTOTAL~</t>
-  </si>
-  <si>
-    <t>~TAXABLE~</t>
-  </si>
-  <si>
-    <t>~TAX_RATE~</t>
-  </si>
-  <si>
-    <t>~TAX_DUE~</t>
-  </si>
-  <si>
-    <t>~TOTAL_DUE~</t>
-  </si>
-  <si>
-    <t>1. Total payment made by ~PAY_METH~</t>
+    <t>|INVOICE_NUM|</t>
+  </si>
+  <si>
+    <t>|CUST_BREV|</t>
+  </si>
+  <si>
+    <t>|VEH_DESC|</t>
+  </si>
+  <si>
+    <t>|VEH_TAX_X|</t>
+  </si>
+  <si>
+    <t>|WAR_DESC|</t>
+  </si>
+  <si>
+    <t>|WAR_TAX_X|</t>
+  </si>
+  <si>
+    <t>|VEH_MILEAGE|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|WAR_PRICE| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">|SUBTOTAL| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">|TAXABLE| </t>
+  </si>
+  <si>
+    <t>|TAX_RATE|</t>
+  </si>
+  <si>
+    <t>1. Total payment made by |PAY_METH|</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|TAX_DUE| </t>
+  </si>
+  <si>
+    <t xml:space="preserve">|TOTAL_DUE| </t>
+  </si>
+  <si>
+    <t>|CST_FNAME| |CST_LNAME|</t>
+  </si>
+  <si>
+    <t>|CST_ADDRESS_1|</t>
+  </si>
+  <si>
+    <t>|CST_ADDRESS_2|</t>
+  </si>
+  <si>
+    <t>|CST_CITY|, |CST_STATE|  |CST_ZIP|</t>
+  </si>
+  <si>
+    <t>|CST_PHONE|</t>
+  </si>
+  <si>
+    <t>|SAL_AMOUNT|</t>
+  </si>
+  <si>
+    <t>|SAL_TRADE_AMT|</t>
+  </si>
+  <si>
+    <t>|SAL_DATE|</t>
   </si>
 </sst>
 </file>
@@ -297,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -365,22 +364,65 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF666666"/>
       </left>
-      <right style="thin">
-        <color rgb="FF666666"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF666666"/>
-      </top>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF666666"/>
-      </left>
+      <left/>
       <right style="thin">
         <color rgb="FF666666"/>
       </right>
@@ -392,6 +434,68 @@
       <left style="thin">
         <color rgb="FF666666"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF666666"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF666666"/>
       </right>
@@ -401,33 +505,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -441,7 +518,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -456,76 +533,112 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -536,13 +649,8 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -855,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -870,51 +978,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="E1" s="25" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="25"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E3" s="15" t="s">
-        <v>43</v>
+      <c r="E3" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="23" t="s">
+      <c r="E4" s="14" t="s">
         <v>28</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="23" t="s">
+      <c r="E5" s="15" t="s">
         <v>29</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -923,13 +1032,13 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -937,87 +1046,87 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
+      <c r="F19" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="14"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
@@ -1029,8 +1138,8 @@
       <c r="E22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="17" t="s">
-        <v>46</v>
+      <c r="F22" s="16" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1038,82 +1147,82 @@
       <c r="E23" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="18" t="s">
-        <v>47</v>
+      <c r="F23" s="17" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
       <c r="E24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="19" t="s">
-        <v>48</v>
+      <c r="F24" s="18" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="E25" s="10" t="s">
+      <c r="A25" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="40"/>
+      <c r="E25" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="20" t="s">
-        <v>49</v>
+      <c r="F25" s="19" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="42"/>
       <c r="E26" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="21" t="s">
-        <v>50</v>
+      <c r="F26" s="20" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="42"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="E28" s="36" t="s">
+      <c r="A28" s="41"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="42"/>
+      <c r="E28" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="36"/>
+      <c r="F28" s="24"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="E29" s="38" t="s">
+      <c r="B29" s="26"/>
+      <c r="C29" s="42"/>
+      <c r="E29" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="38"/>
+      <c r="F29" s="25"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -1121,75 +1230,49 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
     </row>
     <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A28:C28"/>
+  <mergeCells count="4">
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.748" right="0.748" top="1.0457000000000001" bottom="1.0457000000000001" header="0.75" footer="0.75"/>
-  <pageSetup fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/WpfApplication1/bin/Debug/invoice_template.xlsx
+++ b/WpfApplication1/bin/Debug/invoice_template.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26715" windowHeight="12630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Invoice!$A$1:$F$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Invoice!$A$1:$F$40</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>9-5 AUTO</t>
   </si>
@@ -33,6 +34,15 @@
     <t>Cars for the Working Man</t>
   </si>
   <si>
+    <t>DATE:</t>
+  </si>
+  <si>
+    <t>INVOICE #</t>
+  </si>
+  <si>
+    <t>Customer ID</t>
+  </si>
+  <si>
     <t>Topeka, KS 66608</t>
   </si>
   <si>
@@ -90,6 +100,9 @@
     <t>4100 SW Topeka Blvd</t>
   </si>
   <si>
+    <t>1. Total payment made by check</t>
+  </si>
+  <si>
     <t>2. Dealer is not liable for any mechanical failure</t>
   </si>
   <si>
@@ -105,70 +118,136 @@
     <t xml:space="preserve">Customer Signature: </t>
   </si>
   <si>
-    <t xml:space="preserve">Date: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invoice #: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer ID: </t>
-  </si>
-  <si>
-    <t>|INVOICE_NUM|</t>
-  </si>
-  <si>
-    <t>|CUST_BREV|</t>
-  </si>
-  <si>
-    <t>|VEH_DESC|</t>
-  </si>
-  <si>
-    <t>|VEH_TAX_X|</t>
-  </si>
-  <si>
-    <t>|WAR_DESC|</t>
-  </si>
-  <si>
-    <t>|WAR_TAX_X|</t>
+    <t>CST_FNAME</t>
+  </si>
+  <si>
+    <t>CST_LNAME</t>
+  </si>
+  <si>
+    <t>CST_ADDRESS_1</t>
+  </si>
+  <si>
+    <t>CST_ADDRESS_2</t>
+  </si>
+  <si>
+    <t>CST_CITY</t>
+  </si>
+  <si>
+    <t>CST_STATE</t>
+  </si>
+  <si>
+    <t>CST_ZIP</t>
+  </si>
+  <si>
+    <t>CST_PHONE</t>
+  </si>
+  <si>
+    <t>WAR_COVERAGE</t>
+  </si>
+  <si>
+    <t>WAR_PERIOD</t>
+  </si>
+  <si>
+    <t>WAR_MILES</t>
+  </si>
+  <si>
+    <t>WAR_DEDUCTIBLE</t>
+  </si>
+  <si>
+    <t>VEH_VIN</t>
+  </si>
+  <si>
+    <t>VEH_YEAR</t>
+  </si>
+  <si>
+    <t>VEH_MAKE</t>
+  </si>
+  <si>
+    <t>VEH_MODEL</t>
+  </si>
+  <si>
+    <t>VEH_MILEAGE</t>
+  </si>
+  <si>
+    <t>VEH_TRIM</t>
+  </si>
+  <si>
+    <t>SAL_DATE</t>
+  </si>
+  <si>
+    <t>SAL_AMOUNT</t>
+  </si>
+  <si>
+    <t>SAL_TRADE_AMT</t>
+  </si>
+  <si>
+    <t>SAL_TRADE_VIN</t>
+  </si>
+  <si>
+    <t>SAL_TRADE_MILES</t>
+  </si>
+  <si>
+    <t>SAL_TAX_RATE</t>
+  </si>
+  <si>
+    <t>SAL_TYPE</t>
+  </si>
+  <si>
+    <t>|CST_FNAME|</t>
+  </si>
+  <si>
+    <t>|CST_LNAME|</t>
+  </si>
+  <si>
+    <t>|CST_ADDRESS_1|</t>
+  </si>
+  <si>
+    <t>|CST_ADDRESS_2|</t>
+  </si>
+  <si>
+    <t>|CST_CITY|</t>
+  </si>
+  <si>
+    <t>|CST_STATE|</t>
+  </si>
+  <si>
+    <t>|CST_ZIP|</t>
+  </si>
+  <si>
+    <t>|CST_PHONE|</t>
+  </si>
+  <si>
+    <t>|WAR_COVERAGE|</t>
+  </si>
+  <si>
+    <t>|WAR_PERIOD|</t>
+  </si>
+  <si>
+    <t>|WAR_MILES|</t>
+  </si>
+  <si>
+    <t>|WAR_DEDUCTIBLE|</t>
+  </si>
+  <si>
+    <t>|VEH_VIN|</t>
+  </si>
+  <si>
+    <t>|VEH_YEAR|</t>
+  </si>
+  <si>
+    <t>|VEH_MAKE|</t>
+  </si>
+  <si>
+    <t>|VEH_MODEL|</t>
   </si>
   <si>
     <t>|VEH_MILEAGE|</t>
   </si>
   <si>
-    <t xml:space="preserve">|WAR_PRICE| </t>
-  </si>
-  <si>
-    <t xml:space="preserve">|SUBTOTAL| </t>
-  </si>
-  <si>
-    <t xml:space="preserve">|TAXABLE| </t>
-  </si>
-  <si>
-    <t>|TAX_RATE|</t>
-  </si>
-  <si>
-    <t>1. Total payment made by |PAY_METH|</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|TAX_DUE| </t>
-  </si>
-  <si>
-    <t xml:space="preserve">|TOTAL_DUE| </t>
-  </si>
-  <si>
-    <t>|CST_FNAME| |CST_LNAME|</t>
-  </si>
-  <si>
-    <t>|CST_ADDRESS_1|</t>
-  </si>
-  <si>
-    <t>|CST_ADDRESS_2|</t>
-  </si>
-  <si>
-    <t>|CST_CITY|, |CST_STATE|  |CST_ZIP|</t>
-  </si>
-  <si>
-    <t>|CST_PHONE|</t>
+    <t>|VEH_TRIM|</t>
+  </si>
+  <si>
+    <t>|SAL_DATE|</t>
   </si>
   <si>
     <t>|SAL_AMOUNT|</t>
@@ -177,7 +256,16 @@
     <t>|SAL_TRADE_AMT|</t>
   </si>
   <si>
-    <t>|SAL_DATE|</t>
+    <t>|SAL_TRADE_VIN|</t>
+  </si>
+  <si>
+    <t>|SAL_TRADE_MILES|</t>
+  </si>
+  <si>
+    <t>|SAL_TAX_RATE|</t>
+  </si>
+  <si>
+    <t>|SAL_TYPE|</t>
   </si>
 </sst>
 </file>
@@ -296,7 +384,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -340,6 +428,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -364,50 +465,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF666666"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF666666"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF666666"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -416,13 +481,6 @@
       <left style="thin">
         <color rgb="FF666666"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF666666"/>
       </right>
@@ -434,51 +492,9 @@
       <left style="thin">
         <color rgb="FF666666"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF666666"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF666666"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color rgb="FF666666"/>
@@ -489,19 +505,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF666666"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF666666"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF666666"/>
+      <bottom style="double">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,22 +523,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -547,110 +574,68 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -961,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -972,307 +957,596 @@
     <col min="1" max="1" width="37.375" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="9.375" customWidth="1"/>
-    <col min="4" max="4" width="7.75" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="1022" width="7.875" customWidth="1"/>
+    <col min="1023" max="1023" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="49" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="E1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f>Data!B19</f>
+        <v>|SAL_DATE|</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4" t="str">
+        <f>RIGHT(Data!B13,8)</f>
+        <v>VEH_VIN|</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="45" t="str">
+        <f>LEFT(Data!B1,1)&amp;Data!B2</f>
+        <v>||CST_LNAME|</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="str">
+        <f>Data!B1&amp;" "&amp;Data!B2</f>
+        <v>|CST_FNAME| |CST_LNAME|</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="str">
+        <f>Data!B3</f>
+        <v>|CST_ADDRESS_1|</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="str">
+        <f>Data!B4</f>
+        <v>|CST_ADDRESS_2|</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="30" t="str">
+        <f>Data!B5&amp;", "&amp;Data!B6&amp;"  "&amp;Data!B7</f>
+        <v>|CST_CITY|, |CST_STATE|  |CST_ZIP|</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="str">
+        <f>Data!B8</f>
+        <v>|CST_PHONE|</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="35" t="str">
+        <f>"Year Make Model TRIM - VIN "&amp;Data!B13</f>
+        <v>Year Make Model TRIM - VIN |VEH_VIN|</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="6" t="str">
+        <f>IF(Data!B25="O","","X")</f>
+        <v>X</v>
+      </c>
+      <c r="F17" s="23" t="str">
+        <f>Data!B20</f>
+        <v>|SAL_AMOUNT|</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="35" t="str">
+        <f>Data!B10&amp;"/"&amp;Data!B11&amp;" Mile Powertrain Warranty, $"&amp;Data!B9&amp;" coverage, $"&amp;Data!B12&amp;" ded"</f>
+        <v>|WAR_PERIOD|/|WAR_MILES| Mile Powertrain Warranty, $|WAR_COVERAGE| coverage, $|WAR_DEDUCTIBLE| ded</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="35" t="str">
+        <f>"Actual Mileage – "&amp;TEXT(Data!B17,"#,###")</f>
+        <v>Actual Mileage – |VEH_MILEAGE|</v>
+      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="11">
+        <f>SUM(F17:F25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D27" s="12"/>
+      <c r="E27" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="14">
+        <f>SUMIF(E17:E25,"X",F17:F25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="E28" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="15" t="str">
+        <f>Data!B24</f>
+        <v>|SAL_TAX_RATE|</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="E29" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="19" t="e">
+        <f>F28*F27</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="E30" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="17" t="e">
+        <f>F26+F29</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="E32" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="42"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="E33" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="44"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D23" s="6"/>
-      <c r="E23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="E24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="40"/>
-      <c r="E25" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="41" t="s">
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="42"/>
-      <c r="E26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="41" t="s">
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+    </row>
+    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="42"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="41"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="42"/>
-      <c r="E28" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="24"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="42"/>
-      <c r="E29" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="25"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="45"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-    </row>
-    <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A36" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="D1:F1"/>
+  <mergeCells count="23">
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.748" right="0.748" top="1.0457000000000001" bottom="1.0457000000000001" header="0.75" footer="0.75"/>
-  <pageSetup fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.25" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/WpfApplication1/bin/Debug/invoice_template.xlsx
+++ b/WpfApplication1/bin/Debug/invoice_template.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12630"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="28800" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Invoice!$A$1:$F$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Invoice!$A$1:$F$39</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -593,6 +593,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -607,34 +635,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -946,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -965,22 +965,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="E1" s="33" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="E1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="33"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E3" s="1" t="s">
@@ -1010,7 +1010,7 @@
       <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="45" t="str">
+      <c r="F5" s="31" t="str">
         <f>LEFT(Data!B1,1)&amp;Data!B2</f>
         <v>||CST_LNAME|</v>
       </c>
@@ -1032,297 +1032,291 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="str">
-        <f>Data!B3</f>
-        <v>|CST_ADDRESS_1|</v>
+      <c r="A11" s="30" t="str">
+        <f>Data!B3&amp;IF(Data!B4=0,"",", "&amp;Data!B4)</f>
+        <v>|CST_ADDRESS_1|, |CST_ADDRESS_2|</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="str">
-        <f>Data!B4</f>
-        <v>|CST_ADDRESS_2|</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="str">
+      <c r="A12" s="30" t="str">
         <f>Data!B5&amp;", "&amp;Data!B6&amp;"  "&amp;Data!B7</f>
         <v>|CST_CITY|, |CST_STATE|  |CST_ZIP|</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="str">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="str">
         <f>Data!B8</f>
         <v>|CST_PHONE|</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="str">
-        <f>"Year Make Model TRIM - VIN "&amp;Data!B13</f>
-        <v>Year Make Model TRIM - VIN |VEH_VIN|</v>
-      </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="6" t="str">
+      <c r="A16" s="45" t="str">
+        <f>Data!B14&amp;" "&amp;Data!B15&amp;" "&amp;Data!B16&amp;" "&amp;Data!B18&amp;" - "&amp;Data!B13</f>
+        <v>|VEH_YEAR| |VEH_MAKE| |VEH_MODEL| |VEH_TRIM| - |VEH_VIN|</v>
+      </c>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="6" t="str">
         <f>IF(Data!B25="O","","X")</f>
         <v>X</v>
       </c>
-      <c r="F17" s="23" t="str">
+      <c r="F16" s="23" t="str">
         <f>Data!B20</f>
         <v>|SAL_AMOUNT|</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="str">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="45" t="str">
         <f>Data!B10&amp;"/"&amp;Data!B11&amp;" Mile Powertrain Warranty, $"&amp;Data!B9&amp;" coverage, $"&amp;Data!B12&amp;" ded"</f>
         <v>|WAR_PERIOD|/|WAR_MILES| Mile Powertrain Warranty, $|WAR_COVERAGE| coverage, $|WAR_DEDUCTIBLE| ded</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7">
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="str">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="45" t="str">
         <f>"Actual Mileage – "&amp;TEXT(Data!B17,"#,###")</f>
         <v>Actual Mileage – |VEH_MILEAGE|</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
       <c r="E19" s="6"/>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="6"/>
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="6"/>
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="6"/>
       <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
       <c r="E24" s="6"/>
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="11">
+        <f>SUM(F16:F24)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="11">
-        <f>SUM(F17:F25)</f>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="14">
+        <f>SUMIF(E16:E24,"X",F16:F24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D27" s="12"/>
+      <c r="A27" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
       <c r="E27" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="14">
-        <f>SUMIF(E17:E25,"X",F17:F25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="E28" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="15" t="str">
+      <c r="F27" s="15" t="str">
         <f>Data!B24</f>
         <v>|SAL_TAX_RATE|</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="37" t="s">
+    <row r="28" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="E29" s="18" t="s">
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="E28" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="19" t="e">
-        <f>F28*F27</f>
+      <c r="F28" s="19" t="e">
+        <f>F27*F26</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="38" t="s">
+    <row r="29" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="E30" s="16" t="s">
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="E29" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="17" t="e">
-        <f>F26+F29</f>
+      <c r="F29" s="17" t="e">
+        <f>F25+F28</f>
         <v>#VALUE!</v>
       </c>
     </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+    </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="E31" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="36"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="E32" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="42"/>
+      <c r="A32" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="E32" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="38"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="E33" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="44"/>
+      <c r="A33" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>30</v>
-      </c>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
+      <c r="A36" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="41" t="s">
+      <c r="A37" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-    </row>
-    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A40" s="39" t="s">
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+    </row>
+    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A39" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A23:D23"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A16:D16"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.748" right="0.748" top="1.0457000000000001" bottom="1.0457000000000001" header="0.75" footer="0.75"/>
@@ -1336,7 +1330,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
